--- a/GameData/GOSkillTable.xlsx
+++ b/GameData/GOSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic Games\UE_5.3\GuardiansOrders\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C05DF0-305B-465A-BED4-145657A02A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028AE17E-324D-465F-AA47-B98FEF0C37C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20130" yWindow="7680" windowWidth="17360" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="17360" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GOCharacterStatTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Name</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -128,6 +128,13 @@
   <si>
     <t>SkillIcon</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -1091,25 +1098,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="17.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,31 +1126,37 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1149,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1157,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1165,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1173,7 +1188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1205,7 +1220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1221,7 +1236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,7 +1244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1237,7 +1252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +1260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>

--- a/GameData/GOSkillTable.xlsx
+++ b/GameData/GOSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic Games\UE_5.3\GuardiansOrders\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028AE17E-324D-465F-AA47-B98FEF0C37C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C05DF0-305B-465A-BED4-145657A02A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="17360" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20130" yWindow="7680" windowWidth="17360" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GOCharacterStatTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Name</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -128,13 +128,6 @@
   <si>
     <t>SkillIcon</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillName</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -1098,27 +1091,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,37 +1117,31 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1164,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1172,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1196,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1204,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1212,7 +1197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,7 +1213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1244,7 +1229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1252,7 +1237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1260,7 +1245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
